--- a/XLSX transformados/AL_J2_jugadores.xlsx
+++ b/XLSX transformados/AL_J2_jugadores.xlsx
@@ -779,11 +779,7 @@
       <c r="AO2" t="n">
         <v>0</v>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -919,11 +915,7 @@
       <c r="AO3" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1059,11 +1051,7 @@
       <c r="AO4" t="n">
         <v>0</v>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1199,11 +1187,7 @@
       <c r="AO5" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1339,11 +1323,7 @@
       <c r="AO6" t="n">
         <v>0</v>
       </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1479,11 +1459,7 @@
       <c r="AO7" t="n">
         <v>0</v>
       </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1619,11 +1595,7 @@
       <c r="AO8" t="n">
         <v>0</v>
       </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1759,11 +1731,7 @@
       <c r="AO9" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1899,11 +1867,7 @@
       <c r="AO10" t="n">
         <v>0</v>
       </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2039,11 +2003,7 @@
       <c r="AO11" t="n">
         <v>0</v>
       </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2179,11 +2139,7 @@
       <c r="AO12" t="n">
         <v>1</v>
       </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="AP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2211,7 +2167,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2319,11 +2275,7 @@
       <c r="AO13" t="n">
         <v>0</v>
       </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2351,7 +2303,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2459,11 +2411,7 @@
       <c r="AO14" t="n">
         <v>0</v>
       </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2491,7 +2439,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2599,11 +2547,7 @@
       <c r="AO15" t="n">
         <v>0</v>
       </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2631,7 +2575,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2739,11 +2683,7 @@
       <c r="AO16" t="n">
         <v>0</v>
       </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2771,7 +2711,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -2879,11 +2819,7 @@
       <c r="AO17" t="n">
         <v>0</v>
       </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2911,7 +2847,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -3019,11 +2955,7 @@
       <c r="AO18" t="n">
         <v>0</v>
       </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3051,7 +2983,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -3159,11 +3091,7 @@
       <c r="AO19" t="n">
         <v>0</v>
       </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3191,7 +3119,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -3299,11 +3227,7 @@
       <c r="AO20" t="n">
         <v>0</v>
       </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3331,7 +3255,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -3439,11 +3363,7 @@
       <c r="AO21" t="n">
         <v>0</v>
       </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AP21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
